--- a/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
+++ b/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_UserStoriesEstimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_ProductBacklock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4143C3E-4E85-46F7-A439-E35A7F3E12B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F739E056-D4AF-43E4-870C-AC00F5D900B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$F$33:$F$50</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$G$33:$G$50</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>As a user I want to scan my products fast in order to know if i eat healthy food or not.</t>
   </si>
@@ -108,6 +112,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>inform about how to scan</t>
+  </si>
+  <si>
+    <t>write the code</t>
+  </si>
+  <si>
+    <t>Update 29.4</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -123,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,12 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -170,6 +194,933 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3247594050743653E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.65338764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$F$33:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$33:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-620A-45DA-9BD8-48C520144795}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2004367151"/>
+        <c:axId val="2004389199"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="2004367151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004389199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2004389199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004367151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1643062</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFC65CD-355D-4CD0-A4BA-2579EF0E9209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175A9AE-D66A-4B61-BE19-7929BBA6113A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +1434,10 @@
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -562,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -586,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>1</v>
       </c>
@@ -597,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>2</v>
       </c>
@@ -608,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>2</v>
       </c>
@@ -619,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>3</v>
       </c>
@@ -630,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>3</v>
       </c>
@@ -641,18 +1593,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
+        <f>L10+L11</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>3</v>
       </c>
@@ -662,8 +1621,14 @@
       <c r="J11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>24</v>
       </c>
@@ -672,8 +1637,288 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <f>SUM(J20:J23)</f>
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>SUM(J24:J25)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <f>SUM(J26:J29)</f>
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="3">
+        <f>L28+L29</f>
+        <v>13</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <f>SUM(J20:J29)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>44673</v>
+      </c>
+      <c r="G33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>44680</v>
+      </c>
+      <c r="G34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="4">
+        <v>44792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
+++ b/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_ProductBacklock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F739E056-D4AF-43E4-870C-AC00F5D900B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3607A23-09AF-4AC4-815D-C891113F4DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$F$33:$F$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$G$33:$G$50</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -224,11 +220,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -261,22 +256,31 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -376,8 +380,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
         <c:axId val="2004367151"/>
         <c:axId val="2004389199"/>
       </c:barChart>
@@ -394,14 +398,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -412,9 +410,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -441,12 +438,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -470,9 +478,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -508,11 +515,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -580,33 +590,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -615,38 +638,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -656,23 +655,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -680,71 +674,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -760,26 +814,47 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:downBar>
+  <cs:dropLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -787,35 +862,10 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -827,14 +877,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -846,30 +895,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -879,16 +933,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -898,14 +965,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -917,14 +983,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -936,27 +1001,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -964,9 +1028,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -976,14 +1039,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -995,12 +1057,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1009,14 +1070,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1025,9 +1087,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1041,15 +1102,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1058,9 +1121,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1070,14 +1132,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1423,7 +1479,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
+++ b/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_ProductBacklock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3607A23-09AF-4AC4-815D-C891113F4DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE474F75-90ED-4AF5-A65B-4ED24D8D1A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>As a user I want to scan my products fast in order to know if i eat healthy food or not.</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Update 6.5</t>
   </si>
 </sst>
 </file>
@@ -362,6 +365,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +555,398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$F$72:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$72:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D8B-479E-9BEC-D4350931396A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="512956896"/>
+        <c:axId val="512957728"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="512956896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512957728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="512957728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512956896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1138,6 +1535,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1171,6 +2117,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1624853</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A5A9D2-10B6-19DB-9785-736357E400D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1476,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175A9AE-D66A-4B61-BE19-7929BBA6113A}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,6 +2878,9 @@
       <c r="F35" s="4">
         <v>44687</v>
       </c>
+      <c r="G35">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="4">
@@ -1962,13 +2947,295 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F49" s="4">
         <v>44785</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F50" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <f>SUM(J59:J62)</f>
+        <v>18</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <f>SUM(J63:J64)</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <f>SUM(J65:J68)</f>
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="3">
+        <f>L67+L68</f>
+        <v>13</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69">
+        <f>SUM(J59:J68)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F72" s="4">
+        <v>44673</v>
+      </c>
+      <c r="G72">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F73" s="4">
+        <v>44680</v>
+      </c>
+      <c r="G73">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F74" s="4">
+        <v>44687</v>
+      </c>
+      <c r="G74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F75" s="4">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F78" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
         <v>44792</v>
       </c>
     </row>

--- a/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
+++ b/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_ProductBacklock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE474F75-90ED-4AF5-A65B-4ED24D8D1A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10762C2A-2247-4F8C-A852-66768347A74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="22.4" sheetId="1" r:id="rId1"/>
+    <sheet name="29.4" sheetId="2" r:id="rId2"/>
+    <sheet name="6.5" sheetId="3" r:id="rId3"/>
+    <sheet name="13.5" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'13.5'!$D$15:$D$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'13.5'!$E$15:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="29">
   <si>
     <t>As a user I want to scan my products fast in order to know if i eat healthy food or not.</t>
   </si>
@@ -116,9 +123,6 @@
     <t>write the code</t>
   </si>
   <si>
-    <t>Update 29.4</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -138,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,6 +188,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -196,366 +207,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.3247594050743653E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.65338764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$F$33:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44687</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44708</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44722</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44736</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44757</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44764</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44778</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$G$33:$G$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-620A-45DA-9BD8-48C520144795}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="2004367151"/>
-        <c:axId val="2004389199"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="2004367151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2004389199"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="2004389199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2004367151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -644,7 +295,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$72:$F$89</c:f>
+              <c:f>'22.4'!$F$72:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="18"/>
@@ -707,7 +358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$72:$G$89</c:f>
+              <c:f>'22.4'!$G$72:$G$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -906,6 +557,1008 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3247594050743653E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.65338764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'22.4'!$F$33:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'22.4'!$G$33:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6379-4F94-AA19-397D4D334024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="2004367151"/>
+        <c:axId val="2004389199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2004367151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004389199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2004389199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004367151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'22.4'!$F$72:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'22.4'!$G$72:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E54-4EA5-8237-B3FBD4400B28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="512956896"/>
+        <c:axId val="512957728"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="512956896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512957728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="512957728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512956896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13.5'!$D$15:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13.5'!$E$15:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D53-4564-931B-2CA4D35D4124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1648018096"/>
+        <c:axId val="1648016016"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1648018096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648016016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1648016016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648018096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -986,6 +1639,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
@@ -2084,44 +2817,1106 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1643062</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFC65CD-355D-4CD0-A4BA-2579EF0E9209}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2152,7 +3947,134 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338136</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FE8A78-718F-401F-A895-30143E60FDCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1389530</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84408CBE-DD10-4E7B-9C64-2A575955EFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1759324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4046BC52-487B-F8D8-D793-3A21A77A4D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2460,8 +4382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175A9AE-D66A-4B61-BE19-7929BBA6113A}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,294 +4597,103 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <f>SUM(J20:J23)</f>
-        <v>20</v>
-      </c>
-      <c r="H20">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <f>SUM(J24:J25)</f>
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21">
+      <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <f>SUM(J26:J29)</f>
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H26">
+      <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="3">
-        <f>L28+L29</f>
-        <v>13</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30">
-        <f>SUM(J20:J29)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="4">
-        <v>44673</v>
-      </c>
-      <c r="G33">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="4">
-        <v>44680</v>
-      </c>
-      <c r="G34">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="4">
-        <v>44687</v>
-      </c>
-      <c r="G35">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="4">
-        <v>44694</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="4">
-        <v>44701</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="4">
-        <v>44708</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="4">
-        <v>44715</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="4">
-        <v>44722</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="4">
-        <v>44729</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="4">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="4">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="4">
-        <v>44750</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="4">
-        <v>44757</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="4">
-        <v>44764</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="4">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="4">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F49" s="4">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F50" s="4">
-        <v>44792</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +4710,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
@@ -2997,7 +4734,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
@@ -3015,7 +4758,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +4782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62">
         <v>1</v>
       </c>
@@ -3044,7 +4793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H63">
         <v>2</v>
       </c>
@@ -3055,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H64">
         <v>2</v>
       </c>
@@ -3134,7 +4883,7 @@
     </row>
     <row r="71" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
         <v>7</v>
@@ -3244,4 +4993,979 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141E8FF-63B5-461B-9878-554B6E7F7FD6}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <f>SUM(J2:J5)</f>
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>SUM(J6:J7)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <f>SUM(J8:J11)</f>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3">
+        <f>L10+L11</f>
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J2:J11)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="G15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="G16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934D13-8678-4446-848F-AD5EB73A667D}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="77.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <f>SUM(J2:J5)</f>
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>SUM(J6:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <f>SUM(J8:J11)</f>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3">
+        <f>L10+L11</f>
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J2:J11)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="G15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="G16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F0C44-67A6-4CAD-8BE3-6B98375C2E23}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>SUM(H2:H5)</f>
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>SUM(H6:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>SUM(H8:H11)</f>
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3">
+        <f>J10+J11</f>
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="E15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>44694</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
+++ b/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_ProductBacklock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10762C2A-2247-4F8C-A852-66768347A74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9975CA-D61C-4D7F-B4C4-09CC7A35D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
   </bookViews>
@@ -17,11 +17,8 @@
     <sheet name="29.4" sheetId="2" r:id="rId2"/>
     <sheet name="6.5" sheetId="3" r:id="rId3"/>
     <sheet name="13.5" sheetId="4" r:id="rId4"/>
+    <sheet name="20.5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'13.5'!$D$15:$D$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'13.5'!$E$15:$E$32</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
   <si>
     <t>As a user I want to scan my products fast in order to know if i eat healthy food or not.</t>
   </si>
@@ -1373,12 +1370,371 @@
                 <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D53-4564-931B-2CA4D35D4124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1648018096"/>
+        <c:axId val="1648016016"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1648018096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648016016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1648016016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648018096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13.5'!$D$15:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13.5'!$E$15:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE19-44DB-B651-2BBD84D7913C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1719,6 +2075,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
@@ -3367,6 +3763,555 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4067,6 +5012,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1759324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8EE2F1-8088-43A7-8748-55CED297F0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5328,7 +6316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934D13-8678-4446-848F-AD5EB73A667D}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L32"/>
     </sheetView>
   </sheetViews>
@@ -5658,7 +6646,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,7 +6689,7 @@
       </c>
       <c r="D2">
         <f>SUM(H2:H5)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5743,7 +6731,7 @@
       </c>
       <c r="D4">
         <f>SUM(H8:H11)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5752,7 +6740,7 @@
         <v>16</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5807,7 +6795,7 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5819,13 +6807,13 @@
       </c>
       <c r="H10" s="3">
         <f>J10+J11</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5851,7 +6839,7 @@
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5898,6 +6886,9 @@
       <c r="D19" s="4">
         <v>44701</v>
       </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="4">
@@ -5961,6 +6952,309 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39E903-C1CF-4EA0-9B8B-845F4CC9E5BA}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>SUM(F2:F5)</f>
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>SUM(F6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>SUM(F8:F11)</f>
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <f>H10+H11</f>
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>44694</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
         <v>44792</v>
       </c>
     </row>

--- a/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
+++ b/01_ProjectPlanning/05_ProductBacklock/ProductBacklock.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\05_ProductBacklock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9975CA-D61C-4D7F-B4C4-09CC7A35D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9EB424-E448-4724-AD88-0A847222E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{AE588066-DD1E-46A9-8DEF-5F615E56FF65}"/>
   </bookViews>
   <sheets>
     <sheet name="22.4" sheetId="1" r:id="rId1"/>
     <sheet name="29.4" sheetId="2" r:id="rId2"/>
     <sheet name="6.5" sheetId="3" r:id="rId3"/>
-    <sheet name="13.5" sheetId="4" r:id="rId4"/>
-    <sheet name="20.5" sheetId="5" r:id="rId5"/>
+    <sheet name="13.5" sheetId="5" r:id="rId4"/>
+    <sheet name="20.5" sheetId="4" r:id="rId5"/>
+    <sheet name="10.6" sheetId="6" r:id="rId6"/>
+    <sheet name="17.6" sheetId="7" r:id="rId7"/>
+    <sheet name="24.6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="29">
   <si>
     <t>As a user I want to scan my products fast in order to know if i eat healthy food or not.</t>
   </si>
@@ -165,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,11 +176,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,6 +217,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -582,6 +621,390 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'22.4'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'22.4'!$F$15:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'22.4'!$G$15:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FCF-47C7-A37C-E86593CD3C6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="251233599"/>
+        <c:axId val="251234431"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="251233599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251234431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="251234431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251233599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
@@ -599,17 +1022,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.3247594050743653E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.65338764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -617,6 +1030,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'29.4'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -652,25 +1076,85 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'22.4'!$F$33:$F$50</c:f>
+              <c:f>'29.4'!$F$15:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'22.4'!$G$33:$G$50</c:f>
+              <c:f>'29.4'!$G$15:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6379-4F94-AA19-397D4D334024}"/>
+              <c16:uniqueId val="{00000000-EC76-45F2-88AB-EAA52541BDC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -684,11 +1168,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="2004367151"/>
-        <c:axId val="2004389199"/>
+        <c:axId val="530391727"/>
+        <c:axId val="530393391"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="2004367151"/>
+      <c:dateAx>
+        <c:axId val="530391727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,15 +1208,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2004389199"/>
+        <c:crossAx val="530393391"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2004389199"/>
+        <c:axId val="530393391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +1276,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2004367151"/>
+        <c:crossAx val="530391727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -852,7 +1335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1203,7 +1686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1291,7 +1774,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'13.5'!$D$15:$D$32</c:f>
+              <c:f>'20.5'!$D$15:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1354,7 +1837,363 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13.5'!$E$15:$E$32</c:f>
+              <c:f>'20.5'!$E$15:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE19-44DB-B651-2BBD84D7913C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1648018096"/>
+        <c:axId val="1648016016"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1648018096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648016016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1648016016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648018096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'20.5'!$D$15:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20.5'!$E$15:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1559,7 +2398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1612,6 +2451,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.6'!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1647,7 +2497,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'13.5'!$D$15:$D$32</c:f>
+              <c:f>'10.6'!$D$15:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1710,7 +2560,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13.5'!$E$15:$E$32</c:f>
+              <c:f>'10.6'!$E$15:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1729,12 +2579,21 @@
                 <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE19-44DB-B651-2BBD84D7913C}"/>
+              <c16:uniqueId val="{00000000-AE2D-4645-8B73-4EEFE401CF3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1748,11 +2607,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="1648018096"/>
-        <c:axId val="1648016016"/>
+        <c:axId val="371813983"/>
+        <c:axId val="371813567"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1648018096"/>
+        <c:axId val="371813983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,14 +2647,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648016016"/>
+        <c:crossAx val="371813567"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1648016016"/>
+        <c:axId val="371813567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +2715,812 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648018096"/>
+        <c:crossAx val="371813983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17.6'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'17.6'!$C$15:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'17.6'!$D$15:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D51-4E64-83B7-1CC7771D1EEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="533400863"/>
+        <c:axId val="533385471"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="533400863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533385471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="533385471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533400863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'24.6'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'24.6'!$C$15:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'24.6'!$D$15:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18ED-4FD8-A2ED-C9FB13971226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="629756303"/>
+        <c:axId val="629755471"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="629756303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629755471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="629755471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629756303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2115,6 +3779,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
@@ -2665,6 +4489,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3213,7 +5533,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3762,7 +6082,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4311,7 +6631,1601 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4898,6 +8812,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117661</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1417543</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3257E215-CB43-19F9-0C40-C329F1FB43D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4906,28 +8856,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>338136</xdr:colOff>
+      <xdr:colOff>483053</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>172810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>183696</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>58510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FE8A78-718F-401F-A895-30143E60FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F67B5A3-BDE6-5495-81F4-C7557835C748}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4991,6 +8939,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1759324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8EE2F1-8088-43A7-8748-55CED297F0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>218514</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -5028,33 +9019,113 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>218514</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118782</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1759324</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8EE2F1-8088-43A7-8748-55CED297F0FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA1AA94-48C7-88D5-5F6D-A82A9685AF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C96CB88-AF7F-90D3-B272-B63DF2D4FCC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807A7590-4CDE-E133-9956-EB010DE99371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5370,8 +9441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175A9AE-D66A-4B61-BE19-7929BBA6113A}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,30 +9656,139 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="G15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9">
+        <v>44694</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9">
+        <v>44701</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9">
+        <v>44708</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>44757</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>44764</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>44771</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>44792</v>
+      </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="4"/>
@@ -5987,8 +10167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141E8FF-63B5-461B-9878-554B6E7F7FD6}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5997,6 +10177,7 @@
     <col min="4" max="4" width="77.5703125" customWidth="1"/>
     <col min="5" max="5" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6223,85 +10404,82 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="4">
         <v>44687</v>
       </c>
-      <c r="G17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="4">
         <v>44694</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="4">
         <v>44701</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="4">
         <v>44708</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="4">
         <v>44715</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="4">
         <v>44722</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="4">
         <v>44729</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="4">
         <v>44736</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="4">
         <v>44743</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="4">
         <v>44750</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="4">
         <v>44757</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="4">
         <v>44764</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="4">
         <v>44771</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="4">
         <v>44778</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" s="4">
         <v>44785</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="4">
         <v>44792</v>
       </c>
@@ -6316,8 +10494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934D13-8678-4446-848F-AD5EB73A667D}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6642,330 +10820,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F0C44-67A6-4CAD-8BE3-6B98375C2E23}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <f>SUM(H2:H5)</f>
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <f>SUM(H6:H7)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <f>SUM(H8:H11)</f>
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3">
-        <f>J10+J11</f>
-        <v>8</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <f>SUM(H2:H11)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="4">
-        <v>44673</v>
-      </c>
-      <c r="E15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="4">
-        <v>44680</v>
-      </c>
-      <c r="E16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="4">
-        <v>44687</v>
-      </c>
-      <c r="E17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="4">
-        <v>44694</v>
-      </c>
-      <c r="E18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
-        <v>44701</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="4">
-        <v>44708</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="4">
-        <v>44715</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="4">
-        <v>44722</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="4">
-        <v>44729</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="4">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="4">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="4">
-        <v>44750</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="4">
-        <v>44757</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="4">
-        <v>44764</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="4">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="4">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="4">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="4">
-        <v>44792</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39E903-C1CF-4EA0-9B8B-845F4CC9E5BA}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7262,4 +11120,1316 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F0C44-67A6-4CAD-8BE3-6B98375C2E23}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>SUM(H2:H5)</f>
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>SUM(H6:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>SUM(H8:H11)</f>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3">
+        <f>J10+J11</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="E15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>44694</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>44701</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8EC1D7-5072-416E-90CC-CCC80286D1F0}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>SUM(H2:H5)</f>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>SUM(H6:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>SUM(H8:H11)</f>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3">
+        <f>J10+J11</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="E15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>44694</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>44701</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>44708</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>44715</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>44722</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6FE942-85E1-475D-9A18-E34CABD4D970}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>SUM(G2:G5)</f>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>SUM(G6:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f>SUM(G8:G11)</f>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3">
+        <f>I10+I11</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>44694</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>44701</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>44708</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>44715</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>44722</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>44729</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3090CA51-3785-49D4-B065-0C88EEABB399}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>SUM(G2:G5)</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>SUM(G6:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f>SUM(G8:G11)</f>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3">
+        <f>I10+I11</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>44680</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>44687</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>44694</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>44701</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>44708</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>44715</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>44722</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>44729</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>44736</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>44792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>